--- a/biology/Botanique/Rhododendron_keysii/Rhododendron_keysii.xlsx
+++ b/biology/Botanique/Rhododendron_keysii/Rhododendron_keysii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron keysii est une espèce de plantes à fleurs du genre Rhododendron et de la famille des Ericaceae. C'est une espèce lépidote (qui a des écailles) que l'on trouve dans les montagnes du Bhoutan, du Sikkim, de l'Assam et des parties sud et sud-est du Tibet.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses feuilles lancéolées, regroupées par 5 ou 7, mesurent entre 8 et 10 cm de longueur et de 3,3 à 4 cm de largeur. Elles sont recouvertes de petites écailles brunes à l'envers. La nervure principale peu visible est jaune clair.
 Cette espèce est caractérisée par ses fleurs tubulaires retombantes, en inflorescence de 3 à 6 fleurs dont la corolle mesure de 2,5 cm à 3,5 cm de longueur, terminée par cinq petits lobes pointus. La fleur est rouge orangé tirant sur le jaune sur son pourtour. Les pistils rectilignes sont plus longs que la corolle.
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhododendron keysii croît sur les pentes montagneuses à une altitude comprise entre 2 500 mètres et 3 500 mètres.
 </t>
